--- a/Dokumentation/Organisation/Aufwandsschaetzung_0.2.xlsx
+++ b/Dokumentation/Organisation/Aufwandsschaetzung_0.2.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2025_26\SYPRET\DriveSense\Dokumentation\Organisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E125D8-154C-4B54-BF6B-4A0208A0E3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022801D3-7709-4C5E-861F-F5B255A996E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufwandschätzung" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -211,15 +224,9 @@
     <t>5.2.1</t>
   </si>
   <si>
-    <t>SQL Datenbank implementieren</t>
-  </si>
-  <si>
     <t>5.2.2</t>
   </si>
   <si>
-    <t>Datenaustausch mit WebApp ermöglichen</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -277,9 +284,6 @@
     <t>5.1.2.4</t>
   </si>
   <si>
-    <t>Validation der übergebenen Daten implementieren</t>
-  </si>
-  <si>
     <t>5.2.3</t>
   </si>
   <si>
@@ -298,9 +302,6 @@
     <t xml:space="preserve">Backend </t>
   </si>
   <si>
-    <t>Bugfixing</t>
-  </si>
-  <si>
     <t>Usability-Test / Nutzertest</t>
   </si>
   <si>
@@ -314,6 +315,18 @@
   </si>
   <si>
     <t>⌀ Schätzung</t>
+  </si>
+  <si>
+    <t>MySQL Datenbank implementieren</t>
+  </si>
+  <si>
+    <t>Datenaustausch mit WebApp und App ermöglichen</t>
+  </si>
+  <si>
+    <t>Validierung der übergebenen Daten implementieren</t>
+  </si>
+  <si>
+    <t>Bugfixing und Codeoptimierung</t>
   </si>
 </sst>
 </file>
@@ -391,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,12 +414,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -711,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,56 +742,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -786,6 +800,26 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3">
+        <f>SUM(C4:C8)</f>
+        <v>27.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:F3" si="0">SUM(D4:D8)</f>
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <f>SUM(G4:G8)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -794,11 +828,22 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="2">
+        <f>SUM(C4:F4)/4</f>
+        <v>2.5</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -811,6 +856,22 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f>SUM(C5:F5)/4</f>
+        <v>6.25</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -819,11 +880,22 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="2">
+        <f>SUM(C6:F6)/4</f>
+        <v>2</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -834,21 +906,48 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f>SUM(C7:F7)/4</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM(C8:F8)/4</f>
+        <v>9.75</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -878,11 +977,22 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM(C10:F10)/4</f>
+        <v>14.25</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -895,6 +1005,22 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
+        <f>SUM(C11:F11)/4</f>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -903,11 +1029,22 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SUM(C12:F12)/4</f>
+        <v>14.25</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -937,11 +1074,22 @@
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SUM(C14:F14)/4</f>
+        <v>2.75</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -954,6 +1102,22 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
+      <c r="C15" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f>SUM(C15:F15)/4</f>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -962,11 +1126,22 @@
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM(C16:F16)/4</f>
+        <v>4.5</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -996,11 +1171,22 @@
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f>SUM(C18:F18)/4</f>
+        <v>1.5</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1013,6 +1199,22 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="9">
+        <f>SUM(C19:F19)/4</f>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1021,11 +1223,22 @@
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2">
+        <f>SUM(C20:F20)/4</f>
+        <v>6.5</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1046,11 +1259,22 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="C22" s="2">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM(C22:F22)/4</f>
+        <v>6</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1063,11 +1287,26 @@
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="C23" s="5">
+        <f>C24+C34</f>
+        <v>223</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:G23" si="1">D24+D34</f>
+        <v>291</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -1078,13 +1317,28 @@
         <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C25+C29</f>
+        <v>190</v>
+      </c>
+      <c r="D24" s="2">
+        <f>D25+D29</f>
+        <v>250</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" ref="E24:F24" si="2">E25+E29</f>
+        <v>178</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="G24" s="2">
+        <f>SUM(C24:F24)/4</f>
+        <v>211.5</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1097,6 +1351,26 @@
       <c r="B25" t="s">
         <v>48</v>
       </c>
+      <c r="C25">
+        <f>SUM(C26:C28)</f>
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:G25" si="3">SUM(D26:D28)</f>
+        <v>66</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>58.75</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -1105,11 +1379,22 @@
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="C26" s="2">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45</v>
+      </c>
+      <c r="E26" s="2">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2">
+        <v>40</v>
+      </c>
+      <c r="G26" s="2">
+        <f>SUM(C26:F26)/4</f>
+        <v>36.25</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1122,6 +1407,22 @@
       <c r="B27" t="s">
         <v>52</v>
       </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <f>SUM(C27:F27)/4</f>
+        <v>17.75</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -1130,11 +1431,22 @@
       <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2">
+        <f>SUM(C28:F28)/4</f>
+        <v>4.75</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1147,6 +1459,26 @@
       <c r="B29" t="s">
         <v>56</v>
       </c>
+      <c r="C29">
+        <f>SUM(C30:C33)</f>
+        <v>135</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:G29" si="4">SUM(D30:D33)</f>
+        <v>184</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>152.75</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -1155,11 +1487,22 @@
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="C30" s="2">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2">
+        <v>60</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45</v>
+      </c>
+      <c r="F30" s="2">
+        <v>60</v>
+      </c>
+      <c r="G30" s="2">
+        <f>SUM(C30:F30)/4</f>
+        <v>52.5</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1172,6 +1515,22 @@
       <c r="B31" t="s">
         <v>52</v>
       </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <f>SUM(C31:F31)/4</f>
+        <v>20.5</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -1180,11 +1539,22 @@
       <c r="B32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="C32" s="2">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2">
+        <v>90</v>
+      </c>
+      <c r="E32" s="2">
+        <v>67</v>
+      </c>
+      <c r="F32" s="2">
+        <v>75</v>
+      </c>
+      <c r="G32" s="2">
+        <f>SUM(C32:F32)/4</f>
+        <v>76.75</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1192,10 +1562,26 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f>SUM(C33:F33)/4</f>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1203,13 +1589,28 @@
         <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C34" s="2">
+        <f>SUM(C35:C37)</f>
+        <v>33</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:G34" si="5">SUM(D35:D37)</f>
+        <v>41</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="5"/>
+        <v>44.5</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1220,21 +1621,48 @@
         <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>94</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>40</v>
+      </c>
+      <c r="G35">
+        <f>SUM(C35:F35)/4</f>
+        <v>28.75</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2">
+        <f>SUM(C36:F36)/4</f>
+        <v>8.25</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1242,18 +1670,34 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <f>SUM(C37:F37)/4</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1267,23 +1711,43 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>5.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1292,23 +1756,47 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f>SUM(C41:F41)/4</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="C42" s="2">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2">
+        <v>20</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2">
+        <v>15</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1317,18 +1805,30 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1342,18 +1842,34 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>17</v>
+      </c>
+      <c r="G45">
+        <f>SUM(C45:F45)/4</f>
+        <v>21.5</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
